--- a/ANN/Data2/Optimised_Networks/Predictions/2_12-12_30_0.0009_40 predictions_k_fold T11.xlsx
+++ b/ANN/Data2/Optimised_Networks/Predictions/2_12-12_30_0.0009_40 predictions_k_fold T11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data2\Optimised_Networks\Predictions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN\Data2\Optimised_Networks\Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0963B0F1-F7AA-4BCA-BA5D-7DA2268DAAD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E15246-3506-4712-BA66-FE432F1CDED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,40 +405,40 @@
                   <c:v>7.6700000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29935935745659348</c:v>
+                  <c:v>0.28609450614322918</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5207876001871915</c:v>
+                  <c:v>0.49537425171787131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74356151551372451</c:v>
+                  <c:v>0.70342373444183937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96752433901623314</c:v>
+                  <c:v>0.90861496249333085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.192094685148593</c:v>
+                  <c:v>1.109867525635045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4080316040311569</c:v>
+                  <c:v>1.3038153934204819</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5923027296275869</c:v>
+                  <c:v>1.4825243539915729</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.761380833112216</c:v>
+                  <c:v>1.6444646909613341</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.913600217499865</c:v>
+                  <c:v>1.7913774051572851</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0425873355626649</c:v>
+                  <c:v>1.9186509082480701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1620494420477012</c:v>
+                  <c:v>2.0308335174616219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2773987041609161</c:v>
+                  <c:v>2.1332694339057898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,40 +874,40 @@
                   <c:v>764.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>656.09389123793335</c:v>
+                  <c:v>614.4402936960621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>534.66824053023038</c:v>
+                  <c:v>469.65437146403019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>414.32332091581247</c:v>
+                  <c:v>351.46366592789809</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>368.22849942584247</c:v>
+                  <c:v>320.57470803169008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>622.28222904550034</c:v>
+                  <c:v>498.97316021799929</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1354.756978394714</c:v>
+                  <c:v>1061.1146945055909</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2858.9736759481498</c:v>
+                  <c:v>2228.93962916692</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4638.796257737913</c:v>
+                  <c:v>3967.5317284548009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6289.1454997469236</c:v>
+                  <c:v>5750.5089540059207</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7675.0406443357078</c:v>
+                  <c:v>7304.1234169209974</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8961.9331148960046</c:v>
+                  <c:v>8682.5709395068807</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10216.68899923655</c:v>
+                  <c:v>9958.685854526233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1343,40 +1343,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43394890190262703</c:v>
+                  <c:v>0.39530281624676911</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84973737169163788</c:v>
+                  <c:v>0.78203603361008001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2393232574709561</c:v>
+                  <c:v>1.152283900196307</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.597371505504767</c:v>
+                  <c:v>1.494928278392214</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.929810056650592</c:v>
+                  <c:v>1.804433342873647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.235436266145391</c:v>
+                  <c:v>2.0819606475240389</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5063870452922061</c:v>
+                  <c:v>2.3290864384849819</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7526144655770781</c:v>
+                  <c:v>2.556517107250091</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9625845031672071</c:v>
+                  <c:v>2.763237538527243</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1261178462593491</c:v>
+                  <c:v>2.935268087871584</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.270566910216449</c:v>
+                  <c:v>3.0783072694785152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.408752638702512</c:v>
+                  <c:v>3.2016255579304032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1843,40 +1843,40 @@
                   <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2269719146402891</c:v>
+                  <c:v>0.21895650830484939</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37741312545911437</c:v>
+                  <c:v>0.36190242634461128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52905671957263734</c:v>
+                  <c:v>0.50793066162720835</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68560065871030285</c:v>
+                  <c:v>0.66017716081912436</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85059072869185093</c:v>
+                  <c:v>0.82097977957541091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0268578854578641</c:v>
+                  <c:v>0.9881614149863448</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.205297614705755</c:v>
+                  <c:v>1.1540635917467881</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3750447694514121</c:v>
+                  <c:v>1.3087338117540019</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5279406880503561</c:v>
+                  <c:v>1.4442355011319841</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.659366057210927</c:v>
+                  <c:v>1.558210417300375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7634840789206161</c:v>
+                  <c:v>1.653022940214008</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.850786836855121</c:v>
+                  <c:v>1.7323271116212651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,40 +2238,40 @@
                   <c:v>783.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>674.3329367</c:v>
+                  <c:v>665.5669236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>568.9660421</c:v>
+                  <c:v>554.724274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>473.2819526</c:v>
+                  <c:v>466.6784508</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>414.797253</c:v>
+                  <c:v>427.8652124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>422.5900185</c:v>
+                  <c:v>462.085439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>523.8730809</c:v>
+                  <c:v>560.7665259</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>660.9958452</c:v>
+                  <c:v>679.8682042</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>776.1309963</c:v>
+                  <c:v>782.3009501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>859.6846136</c:v>
+                  <c:v>870.3074809</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>927.9232642</c:v>
+                  <c:v>977.2192717</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1022.46015</c:v>
+                  <c:v>1142.807074</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1160.18775</c:v>
+                  <c:v>1403.347097</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2356,40 +2356,40 @@
                   <c:v>783.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>674.33293670467788</c:v>
+                  <c:v>665.56692362345098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>568.96604212226293</c:v>
+                  <c:v>554.72427397113916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>473.28195262016669</c:v>
+                  <c:v>466.67845079381499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>414.79725297514187</c:v>
+                  <c:v>427.86521240510092</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>422.59001845020748</c:v>
+                  <c:v>462.08543901719798</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>523.87308086305188</c:v>
+                  <c:v>560.76652592544451</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>660.99584524054194</c:v>
+                  <c:v>679.8682042292312</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>776.13099628516602</c:v>
+                  <c:v>782.30095013391769</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>859.68461361294703</c:v>
+                  <c:v>870.30748093474745</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>927.9232642433019</c:v>
+                  <c:v>977.21927165024817</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1022.460149869548</c:v>
+                  <c:v>1142.8070739215691</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1160.187749809483</c:v>
+                  <c:v>1403.3470974978561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2825,40 +2825,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28407331436111721</c:v>
+                  <c:v>0.2380211946374291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56717012335094719</c:v>
+                  <c:v>0.47640324957454377</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85100173030404191</c:v>
+                  <c:v>0.71945949285550848</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1410968277880971</c:v>
+                  <c:v>0.97381178950539493</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4444177303951931</c:v>
+                  <c:v>1.244076986708516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.757943684752757</c:v>
+                  <c:v>1.523501976720945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0526505744676329</c:v>
+                  <c:v>1.7905240646218641</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.306116347019568</c:v>
+                  <c:v>2.0167985445768761</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4986693407790819</c:v>
+                  <c:v>2.1806299593590621</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.62328636462831</c:v>
+                  <c:v>2.278818306324824</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6745244276190179</c:v>
+                  <c:v>2.323196890464406</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6883818693385311</c:v>
+                  <c:v>2.328962204474649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6939,7 +6939,7 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AF40" sqref="AF40"/>
+      <selection activeCell="B16" sqref="B16:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7016,13 +7016,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.29935935745659348</v>
+        <v>0.28609450614322918</v>
       </c>
       <c r="C3">
-        <v>656.09389123793335</v>
+        <v>614.4402936960621</v>
       </c>
       <c r="D3">
-        <v>0.43394890190262703</v>
+        <v>0.39530281624676911</v>
       </c>
       <c r="I3" s="2">
         <v>12</v>
@@ -7048,13 +7048,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5207876001871915</v>
+        <v>0.49537425171787131</v>
       </c>
       <c r="C4">
-        <v>534.66824053023038</v>
+        <v>469.65437146403019</v>
       </c>
       <c r="D4">
-        <v>0.84973737169163788</v>
+        <v>0.78203603361008001</v>
       </c>
       <c r="I4" s="2">
         <v>24</v>
@@ -7080,13 +7080,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.74356151551372451</v>
+        <v>0.70342373444183937</v>
       </c>
       <c r="C5">
-        <v>414.32332091581247</v>
+        <v>351.46366592789809</v>
       </c>
       <c r="D5">
-        <v>1.2393232574709561</v>
+        <v>1.152283900196307</v>
       </c>
       <c r="I5" s="2">
         <v>36</v>
@@ -7112,13 +7112,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.96752433901623314</v>
+        <v>0.90861496249333085</v>
       </c>
       <c r="C6">
-        <v>368.22849942584247</v>
+        <v>320.57470803169008</v>
       </c>
       <c r="D6">
-        <v>1.597371505504767</v>
+        <v>1.494928278392214</v>
       </c>
       <c r="I6" s="2">
         <v>48</v>
@@ -7144,13 +7144,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.192094685148593</v>
+        <v>1.109867525635045</v>
       </c>
       <c r="C7">
-        <v>622.28222904550034</v>
+        <v>498.97316021799929</v>
       </c>
       <c r="D7">
-        <v>1.929810056650592</v>
+        <v>1.804433342873647</v>
       </c>
       <c r="I7" s="2">
         <v>60</v>
@@ -7176,13 +7176,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.4080316040311569</v>
+        <v>1.3038153934204819</v>
       </c>
       <c r="C8">
-        <v>1354.756978394714</v>
+        <v>1061.1146945055909</v>
       </c>
       <c r="D8">
-        <v>2.235436266145391</v>
+        <v>2.0819606475240389</v>
       </c>
       <c r="I8" s="2">
         <v>72</v>
@@ -7208,13 +7208,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.5923027296275869</v>
+        <v>1.4825243539915729</v>
       </c>
       <c r="C9">
-        <v>2858.9736759481498</v>
+        <v>2228.93962916692</v>
       </c>
       <c r="D9">
-        <v>2.5063870452922061</v>
+        <v>2.3290864384849819</v>
       </c>
       <c r="I9" s="2">
         <v>84</v>
@@ -7240,13 +7240,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.761380833112216</v>
+        <v>1.6444646909613341</v>
       </c>
       <c r="C10">
-        <v>4638.796257737913</v>
+        <v>3967.5317284548009</v>
       </c>
       <c r="D10">
-        <v>2.7526144655770781</v>
+        <v>2.556517107250091</v>
       </c>
       <c r="I10" s="2">
         <v>96</v>
@@ -7272,13 +7272,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.913600217499865</v>
+        <v>1.7913774051572851</v>
       </c>
       <c r="C11">
-        <v>6289.1454997469236</v>
+        <v>5750.5089540059207</v>
       </c>
       <c r="D11">
-        <v>2.9625845031672071</v>
+        <v>2.763237538527243</v>
       </c>
       <c r="I11" s="2">
         <v>108</v>
@@ -7304,13 +7304,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.0425873355626649</v>
+        <v>1.9186509082480701</v>
       </c>
       <c r="C12">
-        <v>7675.0406443357078</v>
+        <v>7304.1234169209974</v>
       </c>
       <c r="D12">
-        <v>3.1261178462593491</v>
+        <v>2.935268087871584</v>
       </c>
       <c r="I12" s="2">
         <v>120</v>
@@ -7336,13 +7336,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.1620494420477012</v>
+        <v>2.0308335174616219</v>
       </c>
       <c r="C13">
-        <v>8961.9331148960046</v>
+        <v>8682.5709395068807</v>
       </c>
       <c r="D13">
-        <v>3.270566910216449</v>
+        <v>3.0783072694785152</v>
       </c>
       <c r="I13" s="2">
         <v>132</v>
@@ -7368,13 +7368,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.2773987041609161</v>
+        <v>2.1332694339057898</v>
       </c>
       <c r="C14">
-        <v>10216.68899923655</v>
+        <v>9958.685854526233</v>
       </c>
       <c r="D14">
-        <v>3.408752638702512</v>
+        <v>3.2016255579304032</v>
       </c>
       <c r="I14" s="2">
         <v>144</v>
@@ -7435,13 +7435,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2269719146402891</v>
+        <v>0.21895650830484939</v>
       </c>
       <c r="C16">
-        <v>674.33293670467788</v>
+        <v>665.56692362345098</v>
       </c>
       <c r="D16">
-        <v>0.28407331436111721</v>
+        <v>0.2380211946374291</v>
       </c>
       <c r="I16" s="2">
         <v>12</v>
@@ -7467,13 +7467,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.37741312545911437</v>
+        <v>0.36190242634461128</v>
       </c>
       <c r="C17">
-        <v>568.96604212226293</v>
+        <v>554.72427397113916</v>
       </c>
       <c r="D17">
-        <v>0.56717012335094719</v>
+        <v>0.47640324957454377</v>
       </c>
       <c r="I17" s="2">
         <v>24</v>
@@ -7499,13 +7499,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.52905671957263734</v>
+        <v>0.50793066162720835</v>
       </c>
       <c r="C18">
-        <v>473.28195262016669</v>
+        <v>466.67845079381499</v>
       </c>
       <c r="D18">
-        <v>0.85100173030404191</v>
+        <v>0.71945949285550848</v>
       </c>
       <c r="I18" s="2">
         <v>36</v>
@@ -7531,13 +7531,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.68560065871030285</v>
+        <v>0.66017716081912436</v>
       </c>
       <c r="C19">
-        <v>414.79725297514187</v>
+        <v>427.86521240510092</v>
       </c>
       <c r="D19">
-        <v>1.1410968277880971</v>
+        <v>0.97381178950539493</v>
       </c>
       <c r="I19" s="2">
         <v>48</v>
@@ -7563,13 +7563,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.85059072869185093</v>
+        <v>0.82097977957541091</v>
       </c>
       <c r="C20">
-        <v>422.59001845020748</v>
+        <v>462.08543901719798</v>
       </c>
       <c r="D20">
-        <v>1.4444177303951931</v>
+        <v>1.244076986708516</v>
       </c>
       <c r="I20" s="2">
         <v>60</v>
@@ -7595,13 +7595,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.0268578854578641</v>
+        <v>0.9881614149863448</v>
       </c>
       <c r="C21">
-        <v>523.87308086305188</v>
+        <v>560.76652592544451</v>
       </c>
       <c r="D21">
-        <v>1.757943684752757</v>
+        <v>1.523501976720945</v>
       </c>
       <c r="I21" s="2">
         <v>72</v>
@@ -7627,13 +7627,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.205297614705755</v>
+        <v>1.1540635917467881</v>
       </c>
       <c r="C22">
-        <v>660.99584524054194</v>
+        <v>679.8682042292312</v>
       </c>
       <c r="D22">
-        <v>2.0526505744676329</v>
+        <v>1.7905240646218641</v>
       </c>
       <c r="I22" s="2">
         <v>84</v>
@@ -7659,13 +7659,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.3750447694514121</v>
+        <v>1.3087338117540019</v>
       </c>
       <c r="C23">
-        <v>776.13099628516602</v>
+        <v>782.30095013391769</v>
       </c>
       <c r="D23">
-        <v>2.306116347019568</v>
+        <v>2.0167985445768761</v>
       </c>
       <c r="I23" s="2">
         <v>96</v>
@@ -7691,13 +7691,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.5279406880503561</v>
+        <v>1.4442355011319841</v>
       </c>
       <c r="C24">
-        <v>859.68461361294703</v>
+        <v>870.30748093474745</v>
       </c>
       <c r="D24">
-        <v>2.4986693407790819</v>
+        <v>2.1806299593590621</v>
       </c>
       <c r="I24" s="2">
         <v>108</v>
@@ -7723,13 +7723,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.659366057210927</v>
+        <v>1.558210417300375</v>
       </c>
       <c r="C25">
-        <v>927.9232642433019</v>
+        <v>977.21927165024817</v>
       </c>
       <c r="D25">
-        <v>2.62328636462831</v>
+        <v>2.278818306324824</v>
       </c>
       <c r="I25" s="2">
         <v>120</v>
@@ -7752,13 +7752,13 @@
     </row>
     <row r="26" spans="1:26">
       <c r="B26">
-        <v>1.7634840789206161</v>
+        <v>1.653022940214008</v>
       </c>
       <c r="C26">
-        <v>1022.460149869548</v>
+        <v>1142.8070739215691</v>
       </c>
       <c r="D26">
-        <v>2.6745244276190179</v>
+        <v>2.323196890464406</v>
       </c>
       <c r="I26" s="2">
         <v>132</v>
@@ -7781,13 +7781,13 @@
     </row>
     <row r="27" spans="1:26">
       <c r="B27">
-        <v>1.850786836855121</v>
+        <v>1.7323271116212651</v>
       </c>
       <c r="C27">
-        <v>1160.187749809483</v>
+        <v>1403.3470974978561</v>
       </c>
       <c r="D27">
-        <v>2.6883818693385311</v>
+        <v>2.328962204474649</v>
       </c>
       <c r="I27" s="2">
         <v>144</v>
@@ -7837,313 +7837,313 @@
     <row r="31" spans="1:26">
       <c r="S31">
         <f t="shared" ref="S31:S41" si="1">ABS((J3-B3)/J3)</f>
-        <v>0.39107508111799943</v>
+        <v>0.32943543746853704</v>
       </c>
       <c r="T31">
         <f t="shared" ref="T31:T38" si="2">ABS((K3-C3)/K3)</f>
-        <v>0.34812889892110327</v>
+        <v>0.26253990115696896</v>
       </c>
       <c r="U31">
         <f t="shared" ref="U31:U42" si="3">ABS((L3-D3)/L3)</f>
-        <v>0.31499667243220303</v>
+        <v>0.19788732195990633</v>
       </c>
       <c r="X31">
         <f t="shared" ref="X31:X42" si="4">ABS((J16-B16)/J16)</f>
-        <v>0.45775153911553684</v>
+        <v>0.40627172963936664</v>
       </c>
       <c r="Y31">
         <f t="shared" si="0"/>
-        <v>0.1223051715414839</v>
+        <v>0.13371479419048415</v>
       </c>
       <c r="Z31">
         <f t="shared" si="0"/>
-        <v>0.29124233800507826</v>
+        <v>8.1914521079223188E-2</v>
       </c>
     </row>
     <row r="32" spans="1:26">
       <c r="S32">
         <f t="shared" si="1"/>
-        <v>9.7781619281601007E-2</v>
+        <v>4.4212166353017113E-2</v>
       </c>
       <c r="T32">
         <f t="shared" si="2"/>
-        <v>0.12433915239565621</v>
+        <v>1.2376726533982059E-2</v>
       </c>
       <c r="U32">
         <f t="shared" si="3"/>
-        <v>0.14829374552924038</v>
+        <v>5.6805450824432453E-2</v>
       </c>
       <c r="X32">
         <f t="shared" si="4"/>
-        <v>0.51086119078908876</v>
+        <v>0.44876872035472892</v>
       </c>
       <c r="Y32">
         <f t="shared" si="0"/>
-        <v>0.1822850788699871</v>
+        <v>0.20275327109637944</v>
       </c>
       <c r="Z32">
         <f t="shared" si="0"/>
-        <v>0.44686255956874277</v>
+        <v>0.21531441217995856</v>
       </c>
     </row>
     <row r="33" spans="18:26">
       <c r="S33">
         <f t="shared" si="1"/>
-        <v>2.235874537841959E-2</v>
+        <v>3.2828634068693227E-2</v>
       </c>
       <c r="T33">
         <f t="shared" si="2"/>
-        <v>0.33321530686942913</v>
+        <v>0.13094464049907684</v>
       </c>
       <c r="U33">
         <f t="shared" si="3"/>
-        <v>0.11650743916302338</v>
+        <v>3.8093603780456661E-2</v>
       </c>
       <c r="X33">
         <f t="shared" si="4"/>
-        <v>0.30792761328216883</v>
+        <v>0.25570002874464354</v>
       </c>
       <c r="Y33">
         <f t="shared" si="0"/>
-        <v>0.22170374507454912</v>
+        <v>0.23256298175659434</v>
       </c>
       <c r="Z33">
         <f t="shared" si="0"/>
-        <v>0.28939656106673012</v>
+        <v>9.00901406901643E-2</v>
       </c>
     </row>
     <row r="34" spans="18:26">
       <c r="S34">
         <f t="shared" si="1"/>
-        <v>2.3491785409534595E-2</v>
+        <v>8.2948160584042349E-2</v>
       </c>
       <c r="T34">
         <f t="shared" si="2"/>
-        <v>0.47704973696687708</v>
+        <v>0.28589935030762159</v>
       </c>
       <c r="U34">
         <f t="shared" si="3"/>
-        <v>0.12490951091885008</v>
+        <v>5.276639323395356E-2</v>
       </c>
       <c r="X34">
         <f t="shared" si="4"/>
-        <v>0.16717851329639566</v>
+        <v>0.12389710728485585</v>
       </c>
       <c r="Y34">
         <f t="shared" si="0"/>
-        <v>0.18651254564592687</v>
+        <v>0.16088407059207505</v>
       </c>
       <c r="Z34">
         <f t="shared" si="0"/>
-        <v>0.35522188573408209</v>
+        <v>0.15654606829619355</v>
       </c>
     </row>
     <row r="35" spans="18:26">
       <c r="S35">
         <f t="shared" si="1"/>
-        <v>9.5652821380359816E-3</v>
+        <v>6.0071539943220773E-2</v>
       </c>
       <c r="T35">
         <f>ABS((K7-C7)/K7)</f>
-        <v>3.2389797618903291</v>
+        <v>2.3989997290054443</v>
       </c>
       <c r="U35">
         <f t="shared" si="3"/>
-        <v>9.0288167599204522E-2</v>
+        <v>1.9453866030309019E-2</v>
       </c>
       <c r="X35">
         <f t="shared" si="4"/>
-        <v>0.14542247332595057</v>
+        <v>0.10554777750526645</v>
       </c>
       <c r="Y35">
         <f t="shared" si="0"/>
-        <v>8.2124199717186139E-2</v>
+        <v>3.6608145464769922E-3</v>
       </c>
       <c r="Z35">
         <f t="shared" si="0"/>
-        <v>0.21115020157235698</v>
+        <v>4.3163664857048346E-2</v>
       </c>
     </row>
     <row r="36" spans="18:26">
       <c r="S36">
         <f t="shared" si="1"/>
-        <v>3.5926724566772324E-2</v>
+        <v>4.0747944805413515E-2</v>
       </c>
       <c r="T36">
         <f t="shared" si="2"/>
-        <v>0.21204824037437967</v>
+        <v>0.38283603330022509</v>
       </c>
       <c r="U36">
         <f t="shared" si="3"/>
-        <v>5.4451068936505156E-2</v>
+        <v>1.7943090790547754E-2</v>
       </c>
       <c r="X36">
         <f t="shared" si="4"/>
-        <v>0.12618763485179205</v>
+        <v>8.3747987482282016E-2</v>
       </c>
       <c r="Y36">
         <f t="shared" si="0"/>
-        <v>0.22686971537330008</v>
+        <v>0.17242248240046562</v>
       </c>
       <c r="Z36">
         <f t="shared" si="0"/>
-        <v>0.14449458642757612</v>
+        <v>8.1367339056347826E-3</v>
       </c>
     </row>
     <row r="37" spans="18:26">
       <c r="S37">
         <f t="shared" si="1"/>
-        <v>4.9777643478103227E-2</v>
+        <v>2.2597340459142294E-2</v>
       </c>
       <c r="T37">
         <f t="shared" si="2"/>
-        <v>0.23373277264565648</v>
+        <v>0.40259562235545049</v>
       </c>
       <c r="U37">
         <f t="shared" si="3"/>
-        <v>5.4019661538864637E-3</v>
+        <v>7.575934980754688E-2</v>
       </c>
       <c r="X37">
         <f t="shared" si="4"/>
-        <v>0.13879215297217973</v>
+        <v>9.0385101801576023E-2</v>
       </c>
       <c r="Y37">
         <f t="shared" si="0"/>
-        <v>0.30348172261270606</v>
+        <v>0.28359514833589966</v>
       </c>
       <c r="Z37">
         <f t="shared" si="0"/>
-        <v>0.1783298360893415</v>
+        <v>2.7855375787522441E-2</v>
       </c>
     </row>
     <row r="38" spans="18:26">
       <c r="S38">
         <f t="shared" si="1"/>
-        <v>3.5923562378530921E-2</v>
+        <v>3.2838504404320325E-2</v>
       </c>
       <c r="T38">
         <f t="shared" si="2"/>
-        <v>9.275358978732598E-2</v>
+        <v>0.22403815169912267</v>
       </c>
       <c r="U38">
         <f t="shared" si="3"/>
-        <v>6.2763662176613354E-3</v>
+        <v>7.7069636371808317E-2</v>
       </c>
       <c r="X38">
         <f t="shared" si="4"/>
-        <v>0.15076137706202358</v>
+        <v>9.5266391960835098E-2</v>
       </c>
       <c r="Y38">
         <f t="shared" si="0"/>
-        <v>0.32691787677984036</v>
+        <v>0.32156712329033238</v>
       </c>
       <c r="Z38">
         <f t="shared" si="0"/>
-        <v>0.17658997296916737</v>
+        <v>2.8978849273916411E-2</v>
       </c>
     </row>
     <row r="39" spans="18:26">
       <c r="S39">
         <f t="shared" si="1"/>
-        <v>1.4957153654325348E-2</v>
+        <v>4.9868778425116639E-2</v>
       </c>
       <c r="T39">
         <f>ABS((K11-C11)/K11)</f>
-        <v>0.12156392646575952</v>
+        <v>0.19679795823077639</v>
       </c>
       <c r="U39">
         <f t="shared" si="3"/>
-        <v>1.4583733961372325E-2</v>
+        <v>5.3685774476971565E-2</v>
       </c>
       <c r="X39">
         <f t="shared" si="4"/>
-        <v>0.18270817249814694</v>
+        <v>0.11791586123692546</v>
       </c>
       <c r="Y39">
         <f t="shared" si="0"/>
-        <v>0.39776909729390753</v>
+        <v>0.39032750897740986</v>
       </c>
       <c r="Z39">
         <f t="shared" si="0"/>
-        <v>0.14617859668765215</v>
+        <v>2.8897218305594499E-4</v>
       </c>
     </row>
     <row r="40" spans="18:26">
       <c r="S40">
         <f t="shared" si="1"/>
-        <v>2.9398681933933777E-3</v>
+        <v>5.7914706742575817E-2</v>
       </c>
       <c r="T40">
         <f t="shared" ref="T40:T41" si="5">ABS((K12-C12)/K12)</f>
-        <v>0.10347736285487412</v>
+        <v>0.14680425925767177</v>
       </c>
       <c r="U40">
         <f t="shared" si="3"/>
-        <v>1.0722200550838945E-2</v>
+        <v>7.1117693711524099E-2</v>
       </c>
       <c r="X40">
         <f t="shared" si="4"/>
-        <v>0.17995168684557128</v>
+        <v>0.10802134487689319</v>
       </c>
       <c r="Y40">
         <f t="shared" si="0"/>
-        <v>0.45988168553940517</v>
+        <v>0.43118785119310349</v>
       </c>
       <c r="Z40">
         <f t="shared" si="0"/>
-        <v>9.9449440330389716E-2</v>
+        <v>4.4921078656821524E-2</v>
       </c>
     </row>
     <row r="41" spans="18:26">
       <c r="S41">
         <f t="shared" si="1"/>
-        <v>1.7372200563874865E-3</v>
+        <v>5.9058741851632401E-2</v>
       </c>
       <c r="T41">
         <f t="shared" si="5"/>
-        <v>7.5720610707982944E-2</v>
+        <v>0.10453232995980032</v>
       </c>
       <c r="U41">
         <f t="shared" si="3"/>
-        <v>1.4889484874563519E-2</v>
+        <v>7.2799015217314661E-2</v>
       </c>
       <c r="X41">
         <f t="shared" si="4"/>
-        <v>0.18737145092958254</v>
+        <v>0.1129968625195313</v>
       </c>
       <c r="Y41">
         <f t="shared" si="0"/>
-        <v>0.48024595878937171</v>
+        <v>0.41906919788452163</v>
       </c>
       <c r="Z41">
         <f t="shared" si="0"/>
-        <v>8.6321863370843896E-2</v>
+        <v>5.637819233777179E-2</v>
       </c>
     </row>
     <row r="42" spans="18:26">
       <c r="S42">
         <f>ABS((J14-B14)/J14)</f>
-        <v>5.8737264965840969E-3</v>
+        <v>5.7784800182946947E-2</v>
       </c>
       <c r="T42">
         <f>ABS((K14-C14)/K14)</f>
-        <v>0.1475180731973133</v>
+        <v>0.16904589086311866</v>
       </c>
       <c r="U42">
         <f t="shared" si="3"/>
-        <v>1.7650536396970663E-2</v>
+        <v>7.7341337772218161E-2</v>
       </c>
       <c r="X42">
         <f t="shared" si="4"/>
-        <v>0.200718072437473</v>
+        <v>0.12386603842043918</v>
       </c>
       <c r="Y42">
         <f t="shared" si="0"/>
-        <v>0.47604762235944414</v>
+        <v>0.36623443187560134</v>
       </c>
       <c r="Z42">
         <f t="shared" si="0"/>
-        <v>0.14011105569912255</v>
+        <v>1.2314586736790131E-2</v>
       </c>
     </row>
     <row r="43" spans="18:26">
@@ -8152,27 +8152,27 @@
       </c>
       <c r="S43">
         <f>( SUM(S31:S41)/12)*100</f>
-        <v>5.7127890471091938</v>
+        <v>6.7710162925475963</v>
       </c>
       <c r="T43">
         <f>( SUM(T31:T41)/12)*100</f>
-        <v>44.67507799899478</v>
+        <v>37.903039185884509</v>
       </c>
       <c r="U43">
         <f>( SUM(U31:U41)/12)*100</f>
-        <v>7.5110029694779108</v>
+        <v>6.1115099683730936</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43:Z43" si="6">( SUM(X31:X41)/12)*100</f>
-        <v>21.290948374736978</v>
+        <v>16.237657611724206</v>
       </c>
       <c r="Y43">
         <f t="shared" si="6"/>
-        <v>24.917473310313866</v>
+        <v>22.931210368864523</v>
       </c>
       <c r="Z43">
         <f t="shared" si="6"/>
-        <v>20.210315348516342</v>
+        <v>6.2799000770609226</v>
       </c>
     </row>
   </sheetData>
